--- a/municipal/განათლება/სკოლამდელი აღზრდისა და განათლების დაწესებულებები/აჭარა ა.რ/ხულოს მუნიციპალიტეტი.xlsx
+++ b/municipal/განათლება/სკოლამდელი აღზრდისა და განათლების დაწესებულებები/აჭარა ა.რ/ხულოს მუნიციპალიტეტი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\აჭარა ა. რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\აჭარა ა. რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,6 +357,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +653,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,20 +760,20 @@
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12">
-        <v>25.972495088408643</v>
-      </c>
-      <c r="C5" s="13">
-        <v>23.897768512084006</v>
-      </c>
-      <c r="D5" s="14">
-        <v>24.754360575824506</v>
-      </c>
-      <c r="E5" s="13">
-        <v>24.675129572598209</v>
-      </c>
-      <c r="F5" s="13">
-        <v>22.955951404934037</v>
+      <c r="B5" s="30">
+        <v>661</v>
+      </c>
+      <c r="C5" s="31">
+        <v>619</v>
+      </c>
+      <c r="D5" s="32">
+        <v>650</v>
+      </c>
+      <c r="E5" s="31">
+        <v>657</v>
+      </c>
+      <c r="F5" s="33">
+        <v>616</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
